--- a/Data/Offense_2021.csv.xlsx
+++ b/Data/Offense_2021.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0538E14C-9F49-403D-8534-D5EDCB4E9384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D9B242-6628-F540-AF97-76B8E69A8F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51795" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{F5F495EA-32F8-4046-A1DD-E9CFAE6B87CD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{F5F495EA-32F8-4046-A1DD-E9CFAE6B87CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
-    <t>% of Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% of Drives resulting in Turnover</t>
-  </si>
-  <si>
     <t>Expected points contributed by all Offense</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -577,12 +577,12 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -659,16 +659,16 @@
         <v>59</v>
       </c>
       <c r="Z1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -754,7 +754,7 @@
         <v>158.06</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -840,7 +840,7 @@
         <v>216.14</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -926,7 +926,7 @@
         <v>216.68</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>261.77</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>164.91</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>126.97</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>161.53</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>127.06</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>180.42</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>119.94</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>113.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>130.03</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>72.05</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>79.19</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>101.56</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>77.89</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>-11.97</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>58.49</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>-14.49</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>-11.96</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>-18.38</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>-40.89</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>-32.71</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>-92.1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>-74.290000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>-100.13</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>-42.52</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>34</v>
       </c>

--- a/Data/Offense_2021.csv.xlsx
+++ b/Data/Offense_2021.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D9B242-6628-F540-AF97-76B8E69A8F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0538E14C-9F49-403D-8534-D5EDCB4E9384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{F5F495EA-32F8-4046-A1DD-E9CFAE6B87CD}"/>
+    <workbookView xWindow="-51795" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{F5F495EA-32F8-4046-A1DD-E9CFAE6B87CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
+    <t>% of Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% of Drives resulting in Turnover</t>
+  </si>
+  <si>
     <t>Expected points contributed by all Offense</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -577,12 +577,12 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -659,16 +659,16 @@
         <v>59</v>
       </c>
       <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -754,7 +754,7 @@
         <v>158.06</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -840,7 +840,7 @@
         <v>216.14</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -926,7 +926,7 @@
         <v>216.68</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>261.77</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>164.91</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>126.97</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>161.53</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>127.06</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>180.42</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>119.94</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>113.05</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>130.03</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>72.05</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>79.19</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>101.56</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>59.67</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>77.89</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>-11.97</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>58.49</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>-14.49</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>-11.96</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>-18.38</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>-40.89</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>-32.71</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>-92.1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>-74.290000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>-100.13</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>-42.52</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
